--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3261863.86327651</v>
+        <v>-3262528.644357929</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480299</v>
+        <v>362195.2019480309</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="D11" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.05487793325219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>87.14626963200337</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562709</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312423</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>51.31897165521215</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.55182399611256</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>98.93990648501796</v>
+        <v>14.58962378130637</v>
       </c>
       <c r="U12" t="n">
-        <v>36.87179703458443</v>
+        <v>36.87179703458428</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012039</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172974</v>
+        <v>66.3487263917296</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418875</v>
+        <v>16.95705725418861</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83615885979126</v>
+        <v>2.836158859791118</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440348</v>
+        <v>34.98996300440334</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542052</v>
+        <v>23.38309022542038</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171413</v>
+        <v>88.30041113171399</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916805</v>
+        <v>44.75315799916791</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405348</v>
+        <v>89.95484990405333</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296068</v>
+        <v>21.56359822296054</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888657</v>
+        <v>16.78541562888643</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8887994006219</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="G14" t="n">
-        <v>98.93990648501796</v>
+        <v>69.20104390966921</v>
       </c>
       <c r="H14" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562709</v>
+        <v>40.19908950562697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312412</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575477</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860076</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>80.8736777510798</v>
       </c>
       <c r="T15" t="n">
-        <v>14.58962378130652</v>
+        <v>14.5896237813064</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458443</v>
+        <v>36.87179703458431</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012039</v>
+        <v>40.29306373012028</v>
       </c>
       <c r="W15" t="n">
-        <v>66.34872639172974</v>
+        <v>66.34872639172963</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418875</v>
+        <v>16.95705725418864</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.02330180513371</v>
+        <v>23.02842894874365</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83615885979126</v>
+        <v>2.836158859791146</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440348</v>
+        <v>34.98996300440336</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542052</v>
+        <v>23.38309022542041</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171413</v>
+        <v>88.30041113171401</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916805</v>
+        <v>44.75315799916794</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405348</v>
+        <v>89.95484990405336</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296068</v>
+        <v>21.56359822296056</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888657</v>
+        <v>16.78541562888645</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351259991</v>
       </c>
       <c r="C17" t="n">
-        <v>20.35862051594557</v>
+        <v>20.3586205159454</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993868</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640274</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478006</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282763</v>
+        <v>88.97949861282746</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428345</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533475</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947271</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321647</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="J18" t="n">
         <v>51.87880489469028</v>
@@ -1968,22 +1968,22 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>98.93990648501796</v>
+        <v>29.20375702702732</v>
       </c>
       <c r="S18" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>29.20375702702763</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351259991</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594557</v>
+        <v>20.3586205159454</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993868</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640274</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478006</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282763</v>
+        <v>88.97949861282746</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428345</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533475</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947271</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321647</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>29.20375702702766</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>81.0825619217176</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351259991</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594557</v>
+        <v>20.3586205159454</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993868</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640274</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478006</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282763</v>
+        <v>88.97949861282746</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428345</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533475</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947271</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321647</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.2037570270276</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>98.93990648501797</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>98.93990648501797</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>98.93990648501797</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>29.20375702702727</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="J24" t="n">
         <v>51.87880489469028</v>
@@ -2442,7 +2442,7 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529549</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279263</v>
+        <v>14.38744503279255</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423172</v>
+        <v>9.553523565423086</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826928</v>
+        <v>37.2888833482692</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W26" t="n">
         <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4248530728364</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7382922638873</v>
+        <v>43.93447432709794</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>194.5907669189103</v>
+        <v>2.084766620974833</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425283</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V27" t="n">
-        <v>27.7882065697888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139814</v>
+        <v>53.84386923139806</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857158</v>
+        <v>4.452200093857073</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841217</v>
+        <v>10.52357178841208</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407188</v>
+        <v>22.48510584407179</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508892</v>
+        <v>10.87823306508884</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138253</v>
+        <v>75.79555397138245</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883646</v>
+        <v>32.24830083883637</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372179</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629082</v>
+        <v>9.058741062628997</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468554887</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529538</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279263</v>
+        <v>14.38744503279252</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423172</v>
+        <v>9.553523565423058</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826928</v>
+        <v>37.28888334826917</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801533</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728363</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>69.47848495873802</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>32.2725745700384</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.084766620974919</v>
+        <v>2.084766620974805</v>
       </c>
       <c r="U30" t="n">
-        <v>24.36693987425283</v>
+        <v>24.36693987425271</v>
       </c>
       <c r="V30" t="n">
-        <v>27.7882065697888</v>
+        <v>27.78820656978868</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139814</v>
+        <v>53.84386923139803</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.52357178841206</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407188</v>
+        <v>22.48510584407176</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508892</v>
+        <v>10.87823306508881</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138253</v>
+        <v>75.79555397138242</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883646</v>
+        <v>32.24830083883634</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372177</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629082</v>
+        <v>9.058741062628968</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468554858</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160228</v>
+        <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324475</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0398632739035</v>
+        <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529555</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3874450327927</v>
+        <v>14.38744503279261</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423234</v>
+        <v>9.553523565423143</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826934</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144.9211716226242</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>138.8574639123388</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974976</v>
+        <v>2.08476662097489</v>
       </c>
       <c r="U33" t="n">
-        <v>24.36693987425288</v>
+        <v>24.3669398742528</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978885</v>
+        <v>27.78820656978877</v>
       </c>
       <c r="W33" t="n">
-        <v>53.8438692313982</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X33" t="n">
-        <v>4.452200093857215</v>
+        <v>4.45220009385713</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841223</v>
+        <v>10.52357178841214</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407193</v>
+        <v>22.48510584407185</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508898</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138259</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883651</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372194</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629139</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468555029</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.5322936869244</v>
+        <v>133.5322936869243</v>
       </c>
       <c r="C35" t="n">
-        <v>109.6505506902699</v>
+        <v>109.6505506902698</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131829</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973734</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824302</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485792</v>
+        <v>97.3415171348579</v>
       </c>
       <c r="X35" t="n">
-        <v>119.2277676037972</v>
+        <v>119.2277676037971</v>
       </c>
       <c r="Y35" t="n">
         <v>141.7306207275409</v>
@@ -3345,7 +3345,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>90.87837748868802</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449325177</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>192.6881502512164</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608699</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540939</v>
+        <v>4.55406849354091</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842633</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133.5322936869244</v>
+        <v>133.5322936869243</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6505506902699</v>
+        <v>109.6505506902698</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131826</v>
       </c>
       <c r="E38" t="n">
-        <v>130.9239653707272</v>
+        <v>130.9239653707271</v>
       </c>
       <c r="F38" t="n">
         <v>162.6443029491045</v>
       </c>
       <c r="G38" t="n">
-        <v>178.2714287871519</v>
+        <v>178.2714287871518</v>
       </c>
       <c r="H38" t="n">
-        <v>106.3456309286079</v>
+        <v>106.3456309286078</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973706</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824299</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485787</v>
       </c>
       <c r="X38" t="n">
-        <v>119.2277676037972</v>
+        <v>119.2277676037971</v>
       </c>
       <c r="Y38" t="n">
         <v>141.7306207275409</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>143.9075086709618</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>44.24458575232826</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449328019</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610263</v>
+        <v>26.14963688610257</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608696</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540882</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842636</v>
+        <v>49.7557603984263</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973768</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>57.06357937022023</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285847</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449330861</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W42" t="n">
-        <v>26.14963688610266</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X42" t="n">
-        <v>137.843800960676</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973769</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>98.59283752801669</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.8788048946903</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285847</v>
+        <v>6.0637077102859</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>166.2836116329567</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610266</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.6563848510393</v>
+        <v>295.8203264602545</v>
       </c>
       <c r="C11" t="n">
-        <v>268.6563848510393</v>
+        <v>195.8810269804388</v>
       </c>
       <c r="D11" t="n">
-        <v>168.7170853712229</v>
+        <v>195.8810269804388</v>
       </c>
       <c r="E11" t="n">
-        <v>68.77778589140681</v>
+        <v>95.94172750062299</v>
       </c>
       <c r="F11" t="n">
-        <v>68.77778589140681</v>
+        <v>95.94172750062299</v>
       </c>
       <c r="G11" t="n">
-        <v>48.5203334335763</v>
+        <v>95.94172750062299</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5203334335763</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J11" t="n">
-        <v>46.5788133675775</v>
+        <v>46.57881336757614</v>
       </c>
       <c r="K11" t="n">
-        <v>46.5788133675775</v>
+        <v>46.57881336757614</v>
       </c>
       <c r="L11" t="n">
-        <v>95.14277008191958</v>
+        <v>95.14277008191821</v>
       </c>
       <c r="M11" t="n">
-        <v>178.0554888838199</v>
+        <v>178.0554888838185</v>
       </c>
       <c r="N11" t="n">
-        <v>255.4673861415192</v>
+        <v>255.4673861415178</v>
       </c>
       <c r="O11" t="n">
-        <v>291.6558868311987</v>
+        <v>291.6558868311973</v>
       </c>
       <c r="P11" t="n">
-        <v>291.6558868311987</v>
+        <v>291.6558868311973</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513665</v>
+        <v>389.6063942513647</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="T11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="U11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="V11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="W11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="X11" t="n">
-        <v>368.5956843308554</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.6563848510393</v>
+        <v>295.8203264602545</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.6645096865919</v>
+        <v>59.7525376250763</v>
       </c>
       <c r="C12" t="n">
-        <v>27.6645096865919</v>
+        <v>59.7525376250763</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6645096865919</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="E12" t="n">
-        <v>27.6645096865919</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="F12" t="n">
-        <v>27.6645096865919</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="G12" t="n">
-        <v>27.6645096865919</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="H12" t="n">
-        <v>27.6645096865919</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K12" t="n">
-        <v>17.08968857556394</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="L12" t="n">
-        <v>115.0401959957317</v>
+        <v>144.838116727523</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0401959957317</v>
+        <v>212.9907034158983</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9907034158995</v>
+        <v>212.9907034158983</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360673</v>
+        <v>310.9412108360657</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569548</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569548</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="S12" t="n">
-        <v>389.6346686569548</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="T12" t="n">
-        <v>289.6953691771387</v>
+        <v>381.0226322215789</v>
       </c>
       <c r="U12" t="n">
-        <v>252.4511297482655</v>
+        <v>343.7783927927059</v>
       </c>
       <c r="V12" t="n">
-        <v>211.7510653744065</v>
+        <v>243.8390933128902</v>
       </c>
       <c r="W12" t="n">
-        <v>144.7321498272048</v>
+        <v>176.8201777656886</v>
       </c>
       <c r="X12" t="n">
-        <v>127.603809166408</v>
+        <v>159.691837104892</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.6645096865919</v>
+        <v>59.7525376250763</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.42673967391206</v>
+        <v>30.42673967391217</v>
       </c>
       <c r="C13" t="n">
-        <v>63.98642912508846</v>
+        <v>30.42673967391217</v>
       </c>
       <c r="D13" t="n">
-        <v>63.98642912508846</v>
+        <v>85.04821453913775</v>
       </c>
       <c r="E13" t="n">
-        <v>63.98642912508846</v>
+        <v>85.04821453913775</v>
       </c>
       <c r="F13" t="n">
-        <v>63.98642912508846</v>
+        <v>85.04821453913775</v>
       </c>
       <c r="G13" t="n">
-        <v>63.98642912508846</v>
+        <v>116.3919850006747</v>
       </c>
       <c r="H13" t="n">
-        <v>63.98642912508846</v>
+        <v>116.3919850006747</v>
       </c>
       <c r="I13" t="n">
-        <v>63.98642912508846</v>
+        <v>116.3919850006747</v>
       </c>
       <c r="J13" t="n">
-        <v>63.98642912508846</v>
+        <v>116.3919850006747</v>
       </c>
       <c r="K13" t="n">
-        <v>161.9369365452562</v>
+        <v>116.3919850006747</v>
       </c>
       <c r="L13" t="n">
-        <v>235.7895790141874</v>
+        <v>162.9433995195199</v>
       </c>
       <c r="M13" t="n">
-        <v>235.7895790141874</v>
+        <v>260.8939069396873</v>
       </c>
       <c r="N13" t="n">
-        <v>235.7895790141874</v>
+        <v>260.8939069396873</v>
       </c>
       <c r="O13" t="n">
-        <v>235.7895790141874</v>
+        <v>260.8939069396873</v>
       </c>
       <c r="P13" t="n">
-        <v>333.7400864343551</v>
+        <v>260.8939069396873</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343551</v>
+        <v>333.7400864343541</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052731</v>
+        <v>330.8752795052721</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311281</v>
+        <v>295.5318825311273</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751478</v>
+        <v>271.9125994751471</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986689</v>
+        <v>182.7202649986683</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984992</v>
+        <v>137.5150548984987</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692997</v>
+        <v>46.65157014692966</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050504</v>
+        <v>24.87015780050487</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.4784332877943</v>
+        <v>218.359677266593</v>
       </c>
       <c r="C14" t="n">
-        <v>273.5391338079781</v>
+        <v>218.359677266593</v>
       </c>
       <c r="D14" t="n">
-        <v>248.3989323932086</v>
+        <v>218.359677266593</v>
       </c>
       <c r="E14" t="n">
-        <v>248.3989323932086</v>
+        <v>218.359677266593</v>
       </c>
       <c r="F14" t="n">
-        <v>248.3989323932086</v>
+        <v>118.4203777867773</v>
       </c>
       <c r="G14" t="n">
-        <v>148.4596329133924</v>
+        <v>48.52033343357613</v>
       </c>
       <c r="H14" t="n">
-        <v>48.5203334335763</v>
+        <v>48.52033343357613</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J14" t="n">
-        <v>105.8656999389692</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8656999389692</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="L14" t="n">
-        <v>154.4296566533113</v>
+        <v>56.47914923314348</v>
       </c>
       <c r="M14" t="n">
-        <v>237.3423754552116</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N14" t="n">
-        <v>314.7542727129109</v>
+        <v>216.8037652927431</v>
       </c>
       <c r="O14" t="n">
-        <v>350.9427734025904</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="P14" t="n">
-        <v>350.9427734025904</v>
+        <v>291.6558868311974</v>
       </c>
       <c r="Q14" t="n">
-        <v>389.6063942513665</v>
+        <v>389.6063942513648</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="S14" t="n">
-        <v>395.7596259400718</v>
+        <v>368.5956843308539</v>
       </c>
       <c r="T14" t="n">
-        <v>373.4784332877943</v>
+        <v>368.5956843308539</v>
       </c>
       <c r="U14" t="n">
-        <v>373.4784332877943</v>
+        <v>318.2989767464087</v>
       </c>
       <c r="V14" t="n">
-        <v>373.4784332877943</v>
+        <v>318.2989767464087</v>
       </c>
       <c r="W14" t="n">
-        <v>373.4784332877943</v>
+        <v>318.2989767464087</v>
       </c>
       <c r="X14" t="n">
-        <v>373.4784332877943</v>
+        <v>218.359677266593</v>
       </c>
       <c r="Y14" t="n">
-        <v>373.4784332877943</v>
+        <v>218.359677266593</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.2573252255775</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="C15" t="n">
-        <v>160.2573252255775</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="D15" t="n">
-        <v>160.2573252255775</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="E15" t="n">
-        <v>160.2573252255775</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="F15" t="n">
-        <v>60.31802574576132</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="G15" t="n">
-        <v>60.31802574576132</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="H15" t="n">
-        <v>60.31802574576132</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I15" t="n">
-        <v>60.31802574576132</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K15" t="n">
-        <v>7.915192518801437</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="L15" t="n">
-        <v>17.08968857556394</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0401959957317</v>
+        <v>115.0401959957309</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9907034158995</v>
+        <v>212.9907034158983</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360673</v>
+        <v>310.9412108360657</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771375</v>
       </c>
       <c r="S15" t="n">
-        <v>389.6346686569548</v>
+        <v>208.0047855901882</v>
       </c>
       <c r="T15" t="n">
-        <v>374.8976749384634</v>
+        <v>193.2677918716969</v>
       </c>
       <c r="U15" t="n">
-        <v>337.6534355095902</v>
+        <v>156.0235524428238</v>
       </c>
       <c r="V15" t="n">
-        <v>296.9533711357312</v>
+        <v>115.323488068965</v>
       </c>
       <c r="W15" t="n">
-        <v>229.9344555885294</v>
+        <v>48.30457252176332</v>
       </c>
       <c r="X15" t="n">
-        <v>212.8061149277327</v>
+        <v>31.17623186096671</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.2573252255775</v>
+        <v>7.915192518801405</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801437</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="C16" t="n">
-        <v>41.47488196997784</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="D16" t="n">
-        <v>41.47488196997784</v>
+        <v>85.04821453913769</v>
       </c>
       <c r="E16" t="n">
-        <v>99.56780078330414</v>
+        <v>143.1411333524641</v>
       </c>
       <c r="F16" t="n">
-        <v>160.382486000471</v>
+        <v>203.955818569631</v>
       </c>
       <c r="G16" t="n">
-        <v>160.382486000471</v>
+        <v>219.8218755515044</v>
       </c>
       <c r="H16" t="n">
-        <v>160.382486000471</v>
+        <v>254.054600190604</v>
       </c>
       <c r="I16" t="n">
-        <v>181.2084206959386</v>
+        <v>254.054600190604</v>
       </c>
       <c r="J16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="K16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="L16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="M16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="N16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="O16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343551</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052731</v>
+        <v>330.8752795052722</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311281</v>
+        <v>295.5318825311274</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751478</v>
+        <v>271.9125994751472</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986689</v>
+        <v>182.7202649986684</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984992</v>
+        <v>137.5150548984988</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692997</v>
+        <v>46.65157014692971</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050504</v>
+        <v>24.8701578005049</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271192</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796995</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413217</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368743</v>
+        <v>189.1127401368739</v>
       </c>
       <c r="F17" t="n">
-        <v>115.019434303763</v>
+        <v>115.0194343037627</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666369</v>
+        <v>25.14115287666348</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I17" t="n">
-        <v>43.85462273276246</v>
+        <v>96.31420339138263</v>
       </c>
       <c r="J17" t="n">
-        <v>43.85462273276246</v>
+        <v>96.31420339138263</v>
       </c>
       <c r="K17" t="n">
-        <v>43.85462273276246</v>
+        <v>141.8051301529285</v>
       </c>
       <c r="L17" t="n">
-        <v>92.41857944710453</v>
+        <v>190.3690868672706</v>
       </c>
       <c r="M17" t="n">
-        <v>175.3312982490048</v>
+        <v>273.2818056691709</v>
       </c>
       <c r="N17" t="n">
-        <v>252.7431955067042</v>
+        <v>350.6937029268702</v>
       </c>
       <c r="O17" t="n">
-        <v>288.9316961963837</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="P17" t="n">
-        <v>288.9316961963837</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.9316961963837</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="R17" t="n">
-        <v>288.9316961963837</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="S17" t="n">
-        <v>386.8822036165514</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="T17" t="n">
-        <v>386.8822036165514</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165514</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203409</v>
+        <v>387.6287300203395</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946108</v>
+        <v>357.3905103946095</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984324</v>
+        <v>304.4221360984313</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="C18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="D18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="E18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="F18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="G18" t="n">
-        <v>160.2573252255775</v>
+        <v>160.257325225577</v>
       </c>
       <c r="H18" t="n">
-        <v>160.2573252255775</v>
+        <v>160.257325225577</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31802574576132</v>
+        <v>60.31802574576128</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K18" t="n">
-        <v>46.88760930735562</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="L18" t="n">
-        <v>144.8381167275234</v>
+        <v>144.838116727523</v>
       </c>
       <c r="M18" t="n">
-        <v>144.8381167275234</v>
+        <v>144.838116727523</v>
       </c>
       <c r="N18" t="n">
-        <v>242.7886241476912</v>
+        <v>242.7886241476903</v>
       </c>
       <c r="O18" t="n">
-        <v>340.739131567859</v>
+        <v>310.9412108360657</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="Q18" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="R18" t="n">
-        <v>289.6953691771387</v>
+        <v>360.1359241852084</v>
       </c>
       <c r="S18" t="n">
-        <v>189.7560696973225</v>
+        <v>360.1359241852084</v>
       </c>
       <c r="T18" t="n">
-        <v>189.7560696973225</v>
+        <v>360.1359241852084</v>
       </c>
       <c r="U18" t="n">
-        <v>189.7560696973225</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="V18" t="n">
-        <v>189.7560696973225</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="W18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="X18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.2573252255775</v>
+        <v>260.1966247053927</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271191</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796992</v>
+        <v>239.1706370796988</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413214</v>
+        <v>231.1653009413212</v>
       </c>
       <c r="E20" t="n">
         <v>189.112740136874</v>
@@ -5741,61 +5741,61 @@
         <v>115.0194343037626</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666369</v>
+        <v>25.14115287666348</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I20" t="n">
-        <v>62.90482377329325</v>
+        <v>43.85462273276109</v>
       </c>
       <c r="J20" t="n">
-        <v>62.90482377329325</v>
+        <v>43.85462273276109</v>
       </c>
       <c r="K20" t="n">
-        <v>62.90482377329325</v>
+        <v>43.85462273276109</v>
       </c>
       <c r="L20" t="n">
-        <v>111.4687804876353</v>
+        <v>92.41857944710317</v>
       </c>
       <c r="M20" t="n">
-        <v>194.3814992895356</v>
+        <v>175.3312982490035</v>
       </c>
       <c r="N20" t="n">
-        <v>271.7933965472349</v>
+        <v>252.7431955067028</v>
       </c>
       <c r="O20" t="n">
-        <v>307.9818972369144</v>
+        <v>288.9316961963823</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9818972369144</v>
+        <v>288.9316961963823</v>
       </c>
       <c r="Q20" t="n">
-        <v>307.9818972369144</v>
+        <v>288.9316961963823</v>
       </c>
       <c r="R20" t="n">
-        <v>307.9818972369144</v>
+        <v>288.9316961963823</v>
       </c>
       <c r="S20" t="n">
-        <v>307.9818972369144</v>
+        <v>288.9316961963823</v>
       </c>
       <c r="T20" t="n">
-        <v>307.9818972369144</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165514</v>
+        <v>386.8822036165496</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203408</v>
+        <v>387.6287300203395</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946107</v>
+        <v>357.3905103946095</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984322</v>
+        <v>304.4221360984313</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="C21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="D21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="E21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="F21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="G21" t="n">
-        <v>260.1966247053936</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="H21" t="n">
-        <v>160.2573252255775</v>
+        <v>107.8544919986171</v>
       </c>
       <c r="I21" t="n">
-        <v>60.31802574576132</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K21" t="n">
-        <v>46.88760930735562</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="L21" t="n">
-        <v>144.8381167275234</v>
+        <v>105.8656999389688</v>
       </c>
       <c r="M21" t="n">
-        <v>242.7886241476912</v>
+        <v>115.0401959957309</v>
       </c>
       <c r="N21" t="n">
-        <v>297.809118519904</v>
+        <v>212.9907034158983</v>
       </c>
       <c r="O21" t="n">
-        <v>395.7596259400718</v>
+        <v>310.9412108360657</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400718</v>
+        <v>395.7596259400702</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="S21" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="T21" t="n">
-        <v>389.6346686569548</v>
+        <v>389.6346686569532</v>
       </c>
       <c r="U21" t="n">
-        <v>360.1359241852097</v>
+        <v>289.6953691771375</v>
       </c>
       <c r="V21" t="n">
-        <v>360.1359241852097</v>
+        <v>189.7560696973218</v>
       </c>
       <c r="W21" t="n">
-        <v>360.1359241852097</v>
+        <v>189.7560696973218</v>
       </c>
       <c r="X21" t="n">
-        <v>360.1359241852097</v>
+        <v>189.7560696973218</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.1359241852097</v>
+        <v>107.8544919986171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801437</v>
+        <v>7.915192518801405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271191</v>
+        <v>259.734900227118</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796992</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413215</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368743</v>
+        <v>189.1127401368736</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037629</v>
+        <v>115.0194343037625</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666369</v>
+        <v>25.14115287666348</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="I23" t="n">
-        <v>43.85462273276246</v>
+        <v>96.31420339138263</v>
       </c>
       <c r="J23" t="n">
-        <v>43.85462273276246</v>
+        <v>150.6825524764489</v>
       </c>
       <c r="K23" t="n">
-        <v>43.85462273276246</v>
+        <v>150.6825524764489</v>
       </c>
       <c r="L23" t="n">
-        <v>92.41857944710453</v>
+        <v>199.246509190791</v>
       </c>
       <c r="M23" t="n">
-        <v>175.3312982490048</v>
+        <v>282.1592279926912</v>
       </c>
       <c r="N23" t="n">
-        <v>252.7431955067042</v>
+        <v>359.5711252503905</v>
       </c>
       <c r="O23" t="n">
-        <v>288.9316961963837</v>
+        <v>395.75962594007</v>
       </c>
       <c r="P23" t="n">
-        <v>288.9316961963837</v>
+        <v>395.75962594007</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.9316961963837</v>
+        <v>395.75962594007</v>
       </c>
       <c r="R23" t="n">
-        <v>288.9316961963837</v>
+        <v>395.75962594007</v>
       </c>
       <c r="S23" t="n">
-        <v>288.9316961963837</v>
+        <v>395.75962594007</v>
       </c>
       <c r="T23" t="n">
-        <v>386.8822036165515</v>
+        <v>395.75962594007</v>
       </c>
       <c r="U23" t="n">
-        <v>386.8822036165515</v>
+        <v>395.75962594007</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400719</v>
+        <v>395.75962594007</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203408</v>
+        <v>387.6287300203393</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946108</v>
+        <v>357.3905103946093</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984323</v>
+        <v>304.4221360984311</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="C24" t="n">
-        <v>360.1359241852098</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="D24" t="n">
-        <v>260.1966247053936</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="E24" t="n">
-        <v>160.2573252255775</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="F24" t="n">
-        <v>60.31802574576132</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="G24" t="n">
-        <v>60.31802574576132</v>
+        <v>189.7560696973217</v>
       </c>
       <c r="H24" t="n">
-        <v>60.31802574576132</v>
+        <v>160.2573252255769</v>
       </c>
       <c r="I24" t="n">
-        <v>60.31802574576132</v>
+        <v>60.31802574576128</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801438</v>
+        <v>46.88760930735558</v>
       </c>
       <c r="L24" t="n">
-        <v>105.8656999389692</v>
+        <v>144.8381167275229</v>
       </c>
       <c r="M24" t="n">
-        <v>115.0401959957317</v>
+        <v>242.7886241476902</v>
       </c>
       <c r="N24" t="n">
-        <v>212.9907034158995</v>
+        <v>310.9412108360655</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360673</v>
+        <v>310.9412108360655</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400719</v>
+        <v>395.75962594007</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569548</v>
+        <v>389.634668656953</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="T24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="U24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="V24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="W24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="X24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
       <c r="Y24" t="n">
-        <v>389.6346686569548</v>
+        <v>289.6953691771373</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801438</v>
+        <v>7.9151925188014</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907649</v>
+        <v>886.159546190765</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234782</v>
+        <v>759.9863691234783</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901219</v>
+        <v>599.7659673901221</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281016</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720944</v>
+        <v>199.4586982720947</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532323</v>
+        <v>64.06489698532361</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.44327193158</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823417</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498257</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968432</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U26" t="n">
         <v>1742.697910668953</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>347.1117404147887</v>
+        <v>241.100380734943</v>
       </c>
       <c r="C27" t="n">
-        <v>347.1117404147887</v>
+        <v>241.100380734943</v>
       </c>
       <c r="D27" t="n">
-        <v>186.3316241758205</v>
+        <v>241.100380734943</v>
       </c>
       <c r="E27" t="n">
-        <v>186.3316241758205</v>
+        <v>241.100380734943</v>
       </c>
       <c r="F27" t="n">
-        <v>186.3316241758205</v>
+        <v>241.100380734943</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936866</v>
+        <v>196.7221238388845</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936866</v>
+        <v>196.7221238388845</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936866</v>
+        <v>88.49375814632853</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792285</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096929</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R27" t="n">
-        <v>665.8648257447073</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="S27" t="n">
-        <v>665.8648257447073</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="T27" t="n">
-        <v>469.3084955235858</v>
+        <v>793.3187809863933</v>
       </c>
       <c r="U27" t="n">
-        <v>444.6954249435324</v>
+        <v>553.6948878350132</v>
       </c>
       <c r="V27" t="n">
-        <v>416.6265294184932</v>
+        <v>310.6151697386473</v>
       </c>
       <c r="W27" t="n">
-        <v>362.2387827201113</v>
+        <v>256.2274230402654</v>
       </c>
       <c r="X27" t="n">
-        <v>357.7416109081343</v>
+        <v>251.7302512282886</v>
       </c>
       <c r="Y27" t="n">
-        <v>347.1117404147887</v>
+        <v>241.100380734943</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936866</v>
+        <v>103.0922083733224</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936866</v>
+        <v>173.5649357753771</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936866</v>
+        <v>246.7594295812723</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936866</v>
+        <v>246.7594295812723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="N28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="O28" t="n">
-        <v>36.09092491936866</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="P28" t="n">
-        <v>185.4068418807069</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387761</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316161</v>
+        <v>236.9324876316156</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039569</v>
+        <v>160.3713220039566</v>
       </c>
       <c r="V28" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526067</v>
       </c>
       <c r="W28" t="n">
-        <v>49.5649648498576</v>
+        <v>49.56496484985743</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225247</v>
+        <v>40.41472135225238</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1024.891650267093</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907647</v>
+        <v>886.1595461907646</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234782</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901217</v>
+        <v>599.7659673901218</v>
       </c>
       <c r="F29" t="n">
         <v>407.5048206281016</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720941</v>
+        <v>199.4586982720942</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532373</v>
+        <v>64.06489698532359</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L29" t="n">
-        <v>636.654441467668</v>
+        <v>636.6544414676674</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717257</v>
+        <v>930.2992674717251</v>
       </c>
       <c r="N29" t="n">
         <v>1218.443271931582</v>
@@ -6482,31 +6482,31 @@
         <v>1662.834462498259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691001</v>
+        <v>1786.013205691</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968432</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668952</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847041</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.746727067316</v>
+        <v>1187.746727067315</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68.68948509112465</v>
+        <v>456.11120330627</v>
       </c>
       <c r="C30" t="n">
-        <v>68.68948509112465</v>
+        <v>266.6989290392337</v>
       </c>
       <c r="D30" t="n">
-        <v>68.68948509112465</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="E30" t="n">
-        <v>68.68948509112465</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="F30" t="n">
-        <v>68.68948509112465</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="G30" t="n">
-        <v>68.68948509112465</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="H30" t="n">
-        <v>68.68948509112465</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="I30" t="n">
-        <v>68.68948509112465</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792287</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L30" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0131310500094</v>
+        <v>377.0131310500093</v>
       </c>
       <c r="N30" t="n">
         <v>583.5433912625119</v>
@@ -6561,31 +6561,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R30" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="T30" t="n">
-        <v>799.4437382695103</v>
+        <v>793.3187809863933</v>
       </c>
       <c r="U30" t="n">
-        <v>774.830667689457</v>
+        <v>768.7057104063401</v>
       </c>
       <c r="V30" t="n">
-        <v>746.7617721644177</v>
+        <v>740.636814881301</v>
       </c>
       <c r="W30" t="n">
-        <v>692.3740254660357</v>
+        <v>686.2490681829191</v>
       </c>
       <c r="X30" t="n">
-        <v>472.8660310827321</v>
+        <v>466.7410737996155</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.2253380180597</v>
+        <v>456.11120330627</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936869</v>
+        <v>93.34154704822758</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936869</v>
+        <v>93.34154704822758</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936869</v>
+        <v>93.34154704822758</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09092491936869</v>
+        <v>93.34154704822758</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09092491936869</v>
+        <v>185.406841880706</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09092491936869</v>
+        <v>185.406841880706</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09092491936869</v>
+        <v>185.406841880706</v>
       </c>
       <c r="M31" t="n">
-        <v>222.6795765141042</v>
+        <v>185.406841880706</v>
       </c>
       <c r="N31" t="n">
-        <v>222.6795765141042</v>
+        <v>185.406841880706</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641017</v>
+        <v>185.406841880706</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641017</v>
+        <v>185.406841880706</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387759</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316161</v>
+        <v>236.9324876316155</v>
       </c>
       <c r="U31" t="n">
-        <v>160.371322003957</v>
+        <v>160.3713220039565</v>
       </c>
       <c r="V31" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526066</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985763</v>
+        <v>49.56496484985737</v>
       </c>
       <c r="X31" t="n">
-        <v>40.4147213522525</v>
+        <v>40.41472135225235</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="32">
@@ -6677,61 +6677,61 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907651</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D32" t="n">
         <v>759.9863691234782</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901219</v>
+        <v>599.765967390122</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281016</v>
+        <v>407.5048206281018</v>
       </c>
       <c r="G32" t="n">
-        <v>199.458698272095</v>
+        <v>199.4586982720944</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532378</v>
+        <v>64.06489698532368</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365292</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511693</v>
+        <v>377.3583775511676</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676686</v>
+        <v>636.654441467667</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717261</v>
+        <v>930.2992674717245</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931583</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823417</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498257</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691001</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968432</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V32" t="n">
         <v>1633.587739695682</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.8619613196784</v>
+        <v>671.1220258775963</v>
       </c>
       <c r="C33" t="n">
         <v>530.8619613196784</v>
@@ -6765,28 +6765,28 @@
         <v>196.5186412021246</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792287</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0131310500094</v>
+        <v>377.0131310500093</v>
       </c>
       <c r="N33" t="n">
         <v>583.5433912625119</v>
@@ -6798,31 +6798,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="S33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="T33" t="n">
-        <v>799.4437382695103</v>
+        <v>793.3187809863933</v>
       </c>
       <c r="U33" t="n">
-        <v>774.8306676894568</v>
+        <v>768.70571040634</v>
       </c>
       <c r="V33" t="n">
-        <v>746.7617721644176</v>
+        <v>740.6368148813009</v>
       </c>
       <c r="W33" t="n">
-        <v>692.3740254660356</v>
+        <v>686.2490681829189</v>
       </c>
       <c r="X33" t="n">
-        <v>687.8768536540587</v>
+        <v>681.7518963709419</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.2469831607129</v>
+        <v>671.1220258775963</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09092491936869</v>
+        <v>82.7034581471965</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09092491936869</v>
+        <v>84.04417836936602</v>
       </c>
       <c r="J34" t="n">
-        <v>128.1562197518469</v>
+        <v>84.04417836936602</v>
       </c>
       <c r="K34" t="n">
-        <v>128.1562197518469</v>
+        <v>84.04417836936602</v>
       </c>
       <c r="L34" t="n">
-        <v>128.1562197518469</v>
+        <v>84.04417836936602</v>
       </c>
       <c r="M34" t="n">
-        <v>128.1562197518469</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="N34" t="n">
-        <v>128.1562197518469</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6328299641021</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="P34" t="n">
-        <v>270.6328299641021</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.6328299641021</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641021</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387769</v>
+        <v>247.9206018387764</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316164</v>
+        <v>236.9324876316159</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039572</v>
+        <v>160.3713220039568</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526072</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985774</v>
+        <v>49.56496484985754</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225256</v>
+        <v>40.41472135225244</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936869</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866081</v>
+        <v>821.158653286607</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762347</v>
+        <v>710.4005212762331</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749029</v>
+        <v>612.2013162749015</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075003</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213837</v>
+        <v>135.5955616213828</v>
       </c>
       <c r="H35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395686</v>
+        <v>191.3026106395687</v>
       </c>
       <c r="K35" t="n">
         <v>424.2777650760514</v>
       </c>
       <c r="L35" t="n">
-        <v>472.8417217903934</v>
+        <v>472.8417217903935</v>
       </c>
       <c r="M35" t="n">
-        <v>555.7544405922937</v>
+        <v>555.7544405922938</v>
       </c>
       <c r="N35" t="n">
-        <v>681.8814647726888</v>
+        <v>681.881464772688</v>
       </c>
       <c r="O35" t="n">
-        <v>956.2193626863681</v>
+        <v>956.2193626863674</v>
       </c>
       <c r="P35" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q35" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R35" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
       </c>
       <c r="U35" t="n">
-        <v>1399.095053358692</v>
+        <v>1399.095053358691</v>
       </c>
       <c r="V35" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668692</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180008</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208752</v>
+        <v>956.039758020874</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>119.9720732982319</v>
+        <v>188.6034486833231</v>
       </c>
       <c r="C36" t="n">
-        <v>28.17573240056725</v>
+        <v>188.6034486833231</v>
       </c>
       <c r="D36" t="n">
-        <v>28.17573240056725</v>
+        <v>188.6034486833231</v>
       </c>
       <c r="E36" t="n">
-        <v>28.17573240056725</v>
+        <v>188.6034486833231</v>
       </c>
       <c r="F36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K36" t="n">
         <v>67.14814918912143</v>
@@ -7050,16 +7050,16 @@
         <v>787.5094133372635</v>
       </c>
       <c r="V36" t="n">
-        <v>787.4144898781793</v>
+        <v>787.4144898781794</v>
       </c>
       <c r="W36" t="n">
-        <v>518.0159206084707</v>
+        <v>592.7799946749305</v>
       </c>
       <c r="X36" t="n">
-        <v>298.507926225167</v>
+        <v>592.7799946749305</v>
       </c>
       <c r="Y36" t="n">
-        <v>298.507926225167</v>
+        <v>367.1393016102583</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624872</v>
       </c>
       <c r="C37" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624872</v>
       </c>
       <c r="D37" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624872</v>
       </c>
       <c r="E37" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624872</v>
       </c>
       <c r="F37" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624872</v>
       </c>
       <c r="G37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="H37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="I37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="J37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="K37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="L37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="M37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="N37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="O37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="P37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844604</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275638</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736152</v>
       </c>
       <c r="W37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866081</v>
+        <v>821.158653286607</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762341</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749025</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075006</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213837</v>
+        <v>135.5955616213831</v>
       </c>
       <c r="H38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3026106395686</v>
+        <v>191.3026106395687</v>
       </c>
       <c r="K38" t="n">
-        <v>191.3026106395686</v>
+        <v>424.2777650760514</v>
       </c>
       <c r="L38" t="n">
-        <v>478.0159645779106</v>
+        <v>521.5568487130882</v>
       </c>
       <c r="M38" t="n">
-        <v>560.9286833798109</v>
+        <v>604.4695675149885</v>
       </c>
       <c r="N38" t="n">
-        <v>876.4899778615101</v>
+        <v>681.8814647726879</v>
       </c>
       <c r="O38" t="n">
-        <v>1150.827875775189</v>
+        <v>956.2193626863673</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T38" t="n">
         <v>1408.786620028362</v>
       </c>
       <c r="U38" t="n">
-        <v>1399.095053358692</v>
+        <v>1399.095053358691</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
-        <v>1219.634089668692</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X38" t="n">
-        <v>1099.202001180008</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208753</v>
+        <v>956.0397580208739</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>362.949126537262</v>
+        <v>72.86723316049478</v>
       </c>
       <c r="C39" t="n">
-        <v>173.5368522702257</v>
+        <v>72.86723316049478</v>
       </c>
       <c r="D39" t="n">
-        <v>28.17573240056725</v>
+        <v>72.86723316049478</v>
       </c>
       <c r="E39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K39" t="n">
         <v>67.14814918912143</v>
@@ -7272,31 +7272,31 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="R39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="S39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="T39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="U39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="V39" t="n">
-        <v>793.5394471612964</v>
+        <v>544.4296952408976</v>
       </c>
       <c r="W39" t="n">
-        <v>767.1256725288695</v>
+        <v>518.0159206084708</v>
       </c>
       <c r="X39" t="n">
-        <v>767.1256725288695</v>
+        <v>298.5079262251671</v>
       </c>
       <c r="Y39" t="n">
-        <v>541.4849794641971</v>
+        <v>72.86723316049478</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.17573240056725</v>
+        <v>90.48437816624875</v>
       </c>
       <c r="C40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="D40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="E40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="F40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="G40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="H40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="I40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="J40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="K40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="L40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="M40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="N40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="O40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="P40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275631</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736148</v>
       </c>
       <c r="W40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866065</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762333</v>
+        <v>710.400521276233</v>
       </c>
       <c r="D41" t="n">
-        <v>612.2013162749017</v>
+        <v>612.2013162749015</v>
       </c>
       <c r="E41" t="n">
         <v>479.9548866075004</v>
@@ -7400,43 +7400,43 @@
         <v>315.6677119114352</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213828</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K41" t="n">
-        <v>234.8434947747472</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L41" t="n">
-        <v>283.4074514890893</v>
+        <v>472.8417217903934</v>
       </c>
       <c r="M41" t="n">
-        <v>366.3201702909896</v>
+        <v>793.9038378162935</v>
       </c>
       <c r="N41" t="n">
-        <v>681.8814647726888</v>
+        <v>871.3157350739929</v>
       </c>
       <c r="O41" t="n">
-        <v>956.2193626863681</v>
+        <v>969.3930821257453</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.107235383051</v>
+        <v>1194.280954822428</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1344.876988037012</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T41" t="n">
         <v>1408.786620028362</v>
@@ -7454,7 +7454,7 @@
         <v>1099.202001180006</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208742</v>
+        <v>956.0397580208736</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.5880066676035</v>
+        <v>543.8840678047541</v>
       </c>
       <c r="C42" t="n">
-        <v>28.17573240056725</v>
+        <v>354.4717935377178</v>
       </c>
       <c r="D42" t="n">
-        <v>28.17573240056725</v>
+        <v>354.4717935377178</v>
       </c>
       <c r="E42" t="n">
-        <v>28.17573240056725</v>
+        <v>354.4717935377178</v>
       </c>
       <c r="F42" t="n">
-        <v>28.17573240056725</v>
+        <v>194.0440772549618</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>136.4040980931232</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>136.4040980931232</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912143</v>
       </c>
       <c r="L42" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M42" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N42" t="n">
         <v>575.6281987437105</v>
@@ -7518,22 +7518,22 @@
         <v>787.5094133372635</v>
       </c>
       <c r="T42" t="n">
-        <v>787.5094133372635</v>
+        <v>570.3927658962651</v>
       </c>
       <c r="U42" t="n">
-        <v>787.5094133372635</v>
+        <v>570.3927658962651</v>
       </c>
       <c r="V42" t="n">
-        <v>787.4144898781793</v>
+        <v>570.297842437181</v>
       </c>
       <c r="W42" t="n">
-        <v>761.0007152457524</v>
+        <v>543.8840678047541</v>
       </c>
       <c r="X42" t="n">
-        <v>621.7645526592109</v>
+        <v>543.8840678047541</v>
       </c>
       <c r="Y42" t="n">
-        <v>396.1238595945387</v>
+        <v>543.8840678047541</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="L43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="M43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="N43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="O43" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P43" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866077</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762343</v>
       </c>
       <c r="D44" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213828</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H44" t="n">
         <v>28.17573240056725</v>
@@ -7646,34 +7646,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K44" t="n">
-        <v>221.5819702474298</v>
+        <v>424.2777650760512</v>
       </c>
       <c r="L44" t="n">
-        <v>508.2953241857718</v>
+        <v>710.991119014393</v>
       </c>
       <c r="M44" t="n">
-        <v>829.3574402116719</v>
+        <v>1032.053235040293</v>
       </c>
       <c r="N44" t="n">
-        <v>906.7693374693713</v>
+        <v>1109.465132297992</v>
       </c>
       <c r="O44" t="n">
-        <v>1181.107235383051</v>
+        <v>1145.653632987671</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1370.541505684354</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028362</v>
@@ -7682,7 +7682,7 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
         <v>1219.634089668691</v>
@@ -7691,7 +7691,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208747</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.9558486395355</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="C45" t="n">
-        <v>188.9558486395355</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="D45" t="n">
-        <v>28.17573240056725</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="E45" t="n">
-        <v>28.17573240056725</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="F45" t="n">
-        <v>28.17573240056725</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056725</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="H45" t="n">
-        <v>28.17573240056725</v>
+        <v>180.1672904033016</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056725</v>
+        <v>80.57856562752715</v>
       </c>
       <c r="J45" t="n">
         <v>28.17573240056725</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912138</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908913</v>
       </c>
       <c r="M45" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312078</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437102</v>
       </c>
       <c r="O45" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163757</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="Q45" t="n">
-        <v>787.5094133372635</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="R45" t="n">
-        <v>787.5094133372635</v>
+        <v>651.8246759427886</v>
       </c>
       <c r="S45" t="n">
-        <v>787.5094133372635</v>
+        <v>651.8246759427886</v>
       </c>
       <c r="T45" t="n">
-        <v>787.5094133372635</v>
+        <v>651.8246759427886</v>
       </c>
       <c r="U45" t="n">
-        <v>787.5094133372635</v>
+        <v>651.8246759427886</v>
       </c>
       <c r="V45" t="n">
-        <v>619.5461692635698</v>
+        <v>651.7297524837045</v>
       </c>
       <c r="W45" t="n">
-        <v>593.1323946311429</v>
+        <v>625.3159778512776</v>
       </c>
       <c r="X45" t="n">
-        <v>593.1323946311429</v>
+        <v>405.8079834679739</v>
       </c>
       <c r="Y45" t="n">
-        <v>367.4917015664706</v>
+        <v>180.1672904033016</v>
       </c>
     </row>
     <row r="46">
@@ -7789,58 +7789,58 @@
         <v>28.17573240056725</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056725</v>
+        <v>31.00955515672281</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="J46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="K46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="L46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="M46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="N46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="O46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W46" t="n">
         <v>28.17573240056725</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>141.2745637540583</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125989</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6657468248318</v>
+        <v>185.5067434797564</v>
       </c>
       <c r="N12" t="n">
-        <v>200.9373406025673</v>
+        <v>101.9974341175494</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271812</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>129.6830587616845</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098497</v>
+        <v>185.5067434797564</v>
       </c>
       <c r="N15" t="n">
-        <v>200.9373406025673</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271812</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9246,19 +9246,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125989</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M18" t="n">
         <v>116.6657468248318</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025674</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271816</v>
+        <v>189.5306918970883</v>
       </c>
       <c r="P18" t="n">
-        <v>176.2649642485866</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125989</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098497</v>
+        <v>125.9329145589349</v>
       </c>
       <c r="N21" t="n">
-        <v>157.5736910591785</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271812</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125989</v>
+        <v>219.3557975125984</v>
       </c>
       <c r="M24" t="n">
-        <v>125.9329145589353</v>
+        <v>215.6056533098493</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025674</v>
+        <v>170.8384307724739</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271816</v>
+        <v>120.6896952421637</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7313831925515</v>
+        <v>173.7313831925513</v>
       </c>
       <c r="C11" t="n">
-        <v>149.849640195897</v>
+        <v>50.90973371087927</v>
       </c>
       <c r="D11" t="n">
-        <v>38.47639597192747</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E11" t="n">
-        <v>72.18314839133635</v>
+        <v>72.1831483913366</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8433924547316</v>
+        <v>202.8433924547315</v>
       </c>
       <c r="G11" t="n">
-        <v>198.4156403595268</v>
+        <v>218.4705182927788</v>
       </c>
       <c r="H11" t="n">
-        <v>146.544720434235</v>
+        <v>59.39845080223149</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.19908950562697</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312409</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575477</v>
+        <v>22.05838072575463</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860088</v>
+        <v>49.79374050860073</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238702</v>
+        <v>120.52392642387</v>
       </c>
       <c r="W11" t="n">
-        <v>137.540606640485</v>
+        <v>137.5406066404849</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094243</v>
+        <v>159.4268571094241</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.98980374815008</v>
+        <v>82.98980374815034</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925515</v>
+        <v>173.7313831925514</v>
       </c>
       <c r="C14" t="n">
-        <v>50.90973371087901</v>
+        <v>149.8496401958969</v>
       </c>
       <c r="D14" t="n">
-        <v>112.5275030563235</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
-        <v>171.1230548763543</v>
+        <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8433924547316</v>
+        <v>103.903485969714</v>
       </c>
       <c r="G14" t="n">
-        <v>119.530611807761</v>
+        <v>149.2694743831097</v>
       </c>
       <c r="H14" t="n">
-        <v>47.60481394921704</v>
+        <v>146.5447204342349</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312423</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575466</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860088</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.5239264238702</v>
+        <v>120.5239264238701</v>
       </c>
       <c r="W14" t="n">
-        <v>137.540606640485</v>
+        <v>137.5406066404849</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094243</v>
+        <v>60.4869506244066</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.929710233168</v>
+        <v>181.9297102331679</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1308084.179783194</v>
+        <v>1308084.179783195</v>
       </c>
     </row>
     <row r="6">
@@ -26329,25 +26329,25 @@
         <v>132557.7823287804</v>
       </c>
       <c r="H2" t="n">
-        <v>132557.7823287804</v>
+        <v>132557.7823287803</v>
       </c>
       <c r="I2" t="n">
         <v>132557.7823287804</v>
       </c>
       <c r="J2" t="n">
-        <v>132557.7823287805</v>
+        <v>132557.7823287804</v>
       </c>
       <c r="K2" t="n">
-        <v>132557.7823287805</v>
+        <v>132557.7823287804</v>
       </c>
       <c r="L2" t="n">
         <v>132557.7823287804</v>
       </c>
       <c r="M2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287802</v>
       </c>
       <c r="N2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287802</v>
       </c>
       <c r="O2" t="n">
         <v>132557.7823287803</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.8157439612</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.8973352048</v>
+        <v>158845.8973352049</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103592.8157439611</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623646</v>
+        <v>22155.38587623641</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252962</v>
+        <v>66695.75573252967</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,25 +26439,25 @@
         <v>437118.4581698083</v>
       </c>
       <c r="J4" t="n">
-        <v>436469.4452056573</v>
+        <v>436469.4452056574</v>
       </c>
       <c r="K4" t="n">
-        <v>436469.4452056573</v>
+        <v>436469.4452056574</v>
       </c>
       <c r="L4" t="n">
-        <v>436469.4452056573</v>
+        <v>436469.4452056574</v>
       </c>
       <c r="M4" t="n">
         <v>436027.6049897707</v>
       </c>
       <c r="N4" t="n">
-        <v>436027.6049897707</v>
+        <v>436027.6049897706</v>
       </c>
       <c r="O4" t="n">
         <v>436027.6049897706</v>
       </c>
       <c r="P4" t="n">
-        <v>436027.6049897706</v>
+        <v>436027.6049897707</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439978</v>
+        <v>25128.77385439976</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439978</v>
+        <v>25128.77385439976</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="J5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.60131544281</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="L5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="M5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="N5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="O5" t="n">
         <v>43906.28142019035</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373879.9611401864</v>
+        <v>-373884.4275243916</v>
       </c>
       <c r="C6" t="n">
-        <v>-373879.9611401864</v>
+        <v>-373884.4275243916</v>
       </c>
       <c r="D6" t="n">
-        <v>-373879.9611401864</v>
+        <v>-373884.4275243916</v>
       </c>
       <c r="E6" t="n">
-        <v>-551195.1967447249</v>
+        <v>-551504.5178943201</v>
       </c>
       <c r="F6" t="n">
-        <v>-277730.1521579197</v>
+        <v>-278039.4733075149</v>
       </c>
       <c r="G6" t="n">
         <v>-444168.4459728627</v>
@@ -26543,13 +26543,13 @@
         <v>-340575.6302289015</v>
       </c>
       <c r="J6" t="n">
-        <v>-510351.1615275243</v>
+        <v>-510351.1615275246</v>
       </c>
       <c r="K6" t="n">
-        <v>-351505.2641923197</v>
+        <v>-351505.2641923198</v>
       </c>
       <c r="L6" t="n">
-        <v>-455098.0799362807</v>
+        <v>-455098.0799362808</v>
       </c>
       <c r="M6" t="n">
         <v>-369531.4899574172</v>
@@ -26558,10 +26558,10 @@
         <v>-347376.1040811808</v>
       </c>
       <c r="O6" t="n">
-        <v>-414071.8598137103</v>
+        <v>-414071.8598137104</v>
       </c>
       <c r="P6" t="n">
-        <v>-347376.1040811806</v>
+        <v>-347376.1040811808</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M2" t="n">
         <v>240.554946690909</v>
@@ -26722,10 +26722,10 @@
         <v>240.554946690909</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>104.1060083670286</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670285</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501797</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921081</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921086</v>
+        <v>451.1365614921081</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921086</v>
+        <v>451.1365614921081</v>
       </c>
       <c r="M4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="N4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="P4" t="n">
         <v>352.1966550070906</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566205</v>
+        <v>83.36969466566211</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529557</v>
+        <v>27.69423234529552</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566202</v>
+        <v>83.36969466566208</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070903</v>
+        <v>352.1966550070906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566205</v>
+        <v>83.36969466566211</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J11" t="n">
-        <v>114.8344846805803</v>
+        <v>114.834484680579</v>
       </c>
       <c r="K11" t="n">
         <v>5.226507866178949</v>
@@ -28132,31 +28132,31 @@
         <v>13.39547932052248</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.3776479086705</v>
+        <v>187.3776479086701</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>107.8533434213664</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28187,7 +28187,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I12" t="n">
-        <v>87.59425803951785</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J12" t="n">
         <v>51.87880489469028</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R12" t="n">
         <v>134.3278900205298</v>
@@ -28220,22 +28220,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T12" t="n">
-        <v>116.0055744815704</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852818</v>
+        <v>141.7090144303847</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.4443796490077</v>
+        <v>124.4443796490081</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C13" t="n">
-        <v>200.3558571852818</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6954829817093</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H13" t="n">
         <v>165.7773474488177</v>
@@ -28272,13 +28272,13 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3550587809063</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>105.9636770430667</v>
+        <v>78.38667911368701</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814032</v>
       </c>
       <c r="N13" t="n">
         <v>15.71034539069795</v>
@@ -28287,34 +28287,34 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P13" t="n">
-        <v>156.778468638218</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.7738576957197</v>
+        <v>200.355857185282</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J14" t="n">
-        <v>174.7202286920871</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178949</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.39547932052248</v>
+        <v>52.44964179403243</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.4919038971637</v>
+        <v>187.3776479086701</v>
       </c>
       <c r="R14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>59.88353263491038</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7382922638873</v>
@@ -28427,7 +28427,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551223</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4735447740309</v>
+        <v>110.5998670229511</v>
       </c>
       <c r="T15" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U15" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V15" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W15" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X15" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.3609843288919</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C16" t="n">
-        <v>200.3558571852818</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6954829817093</v>
+        <v>184.7218031654198</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7773474488177</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I16" t="n">
-        <v>185.7301225081012</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K16" t="n">
         <v>66.41515229588839</v>
@@ -28527,31 +28527,31 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.3558571852818</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.3558571852818</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="I17" t="n">
-        <v>276.8574014524857</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="J17" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K17" t="n">
-        <v>5.226507866178949</v>
+        <v>51.17693893844751</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
-        <v>326.188065863424</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T17" t="n">
         <v>222.4142379110366</v>
@@ -28621,16 +28621,16 @@
         <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7382922638873</v>
+        <v>49.79838577886972</v>
       </c>
       <c r="H18" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206175550612457</v>
+        <v>8.206175550612855</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.38798353551184</v>
+        <v>105.1241329935025</v>
       </c>
       <c r="S18" t="n">
-        <v>92.53363828901291</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348487</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>237.500826549984</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="I20" t="n">
-        <v>296.1000287661532</v>
+        <v>276.8574014524844</v>
       </c>
       <c r="J20" t="n">
         <v>75.78032220706916</v>
@@ -28852,22 +28852,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4142379110366</v>
+        <v>321.3541443960542</v>
       </c>
       <c r="U20" t="n">
-        <v>329.8468768652332</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
     </row>
     <row r="21">
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>49.79838577886932</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H21" t="n">
-        <v>26.73465543387694</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206175550612457</v>
+        <v>8.206175550612855</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28934,10 +28934,10 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>208.0238971928386</v>
+        <v>138.2877477348487</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>141.7090144303847</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>142.301724212308</v>
       </c>
     </row>
     <row r="22">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="I23" t="n">
-        <v>276.8574014524857</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="J23" t="n">
-        <v>75.78032220706916</v>
+        <v>130.6978465354189</v>
       </c>
       <c r="K23" t="n">
         <v>5.226507866178949</v>
@@ -29089,22 +29089,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>321.3541443960546</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U23" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652334</v>
       </c>
     </row>
     <row r="24">
@@ -29117,25 +29117,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>158.3143944973383</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>60.23240859156057</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>72.8876653547817</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>59.88353263491037</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7382922638873</v>
+        <v>49.79838577886977</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6745619188949</v>
+        <v>96.47080489186763</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1460820356304</v>
+        <v>8.206175550612912</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551228</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740309</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456121</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.8038179367893</v>
       </c>
       <c r="H27" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>20.35471404767807</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="28">
@@ -29436,19 +29436,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G28" t="n">
         <v>168.6954829817093</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7773474488177</v>
+        <v>189.8918932900589</v>
       </c>
       <c r="I28" t="n">
         <v>164.6938248359117</v>
@@ -29472,34 +29472,34 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
-        <v>208.6627207000063</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8607143456134</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R28" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456144</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456119</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>89.69383011784052</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7382922638873</v>
@@ -29612,7 +29612,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
-        <v>19.60623032465188</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3278900205298</v>
@@ -29642,22 +29642,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>196.7557934597183</v>
       </c>
       <c r="G31" t="n">
         <v>168.6954829817093</v>
@@ -29691,7 +29691,7 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8654670400798</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K31" t="n">
         <v>66.41515229588839</v>
@@ -29700,43 +29700,43 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8607143456134</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N31" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O31" t="n">
-        <v>85.16852131116042</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P31" t="n">
         <v>57.83856215320002</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7738576957197</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456151</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.8293227750415</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>48.66068761202712</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3278900205298</v>
@@ -29879,22 +29879,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="34">
@@ -29922,13 +29922,13 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7773474488177</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I34" t="n">
-        <v>164.6938248359117</v>
+        <v>166.048087686588</v>
       </c>
       <c r="J34" t="n">
-        <v>212.8607143456134</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K34" t="n">
         <v>66.41515229588839</v>
@@ -29937,13 +29937,13 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M34" t="n">
-        <v>24.38732889638567</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N34" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O34" t="n">
-        <v>180.646659454855</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P34" t="n">
         <v>57.83856215320002</v>
@@ -29955,25 +29955,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="35">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.2071989118139</v>
+        <v>49.20719891181299</v>
       </c>
       <c r="O35" t="n">
         <v>240.554946690909</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>96.6397740356779</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7382922638873</v>
@@ -30125,13 +30125,13 @@
         <v>240.554946690909</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>74.01643332579519</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6954829817093</v>
+        <v>210.2479686566707</v>
       </c>
       <c r="H37" t="n">
         <v>165.7773474488177</v>
@@ -30180,7 +30180,7 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O37" t="n">
-        <v>141.2214032645904</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P37" t="n">
         <v>57.83856215320002</v>
@@ -30247,22 +30247,22 @@
         <v>240.554946690909</v>
       </c>
       <c r="K38" t="n">
-        <v>5.226507866178949</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L38" t="n">
-        <v>240.554946690909</v>
+        <v>49.20719891181288</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="P38" t="n">
-        <v>43.98069104563496</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q38" t="n">
         <v>240.554946690909</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>15.2648064056167</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>127.5829860874714</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3278900205298</v>
@@ -30359,13 +30359,13 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>208.0096666469335</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30423,7 +30423,7 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q40" t="n">
-        <v>231.2643693966219</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
         <v>203.1920160450731</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K41" t="n">
-        <v>49.20719891181379</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5549466909089</v>
+        <v>62.5139862243161</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7382922638873</v>
+        <v>91.67471289366705</v>
       </c>
       <c r="H42" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>51.87880489469028</v>
@@ -30587,25 +30587,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X42" t="n">
-        <v>79.46911347879455</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,25 +30642,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657055</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O43" t="n">
-        <v>36.73089156368812</v>
+        <v>141.2214032645904</v>
       </c>
       <c r="P43" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q43" t="n">
-        <v>231.264369396622</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K44" t="n">
-        <v>35.81171959129121</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="M44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.39547932052245</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>108.9284612740915</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>194.1404716411351</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="45">
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30794,10 +30794,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1460820356304</v>
+        <v>8.553244507613741</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T45" t="n">
         <v>214.9454809665884</v>
@@ -30833,13 +30833,13 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>74.36530928244554</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>144.538588440665</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G46" t="n">
         <v>168.6954829817093</v>
@@ -30879,25 +30879,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588842</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657055</v>
+        <v>31.3650482865706</v>
       </c>
       <c r="M46" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638571</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069799</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368816</v>
       </c>
       <c r="P46" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215320004</v>
       </c>
       <c r="Q46" t="n">
-        <v>231.264369396622</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R46" t="n">
         <v>203.1920160450731</v>
@@ -30909,13 +30909,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J41" t="n">
-        <v>35.52107468398432</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K41" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L41" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N41" t="n">
-        <v>74.67696618271293</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T41" t="n">
         <v>1.832056488951428</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H42" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J42" t="n">
         <v>21.15610873805815</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L42" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O42" t="n">
-        <v>53.27772298005852</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P42" t="n">
-        <v>42.76006973852542</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.58397422183021</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R42" t="n">
         <v>13.90306277777036</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L43" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M43" t="n">
-        <v>29.42786725037172</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N43" t="n">
-        <v>28.72813834167532</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342133</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R43" t="n">
-        <v>8.441119957103664</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U43" t="n">
         <v>0.01023993524921594</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508679</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251577</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957735</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398432</v>
+        <v>35.52107468398425</v>
       </c>
       <c r="K44" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258251</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635114</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593763</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271293</v>
+        <v>74.67696618271279</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688509</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578553</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555756</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441348</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652911</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951425</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406942</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045518</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001856</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086543</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805812</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876309</v>
       </c>
       <c r="L45" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386552</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003051</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411718</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005852</v>
+        <v>53.27772298005843</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852542</v>
+        <v>42.76006973852534</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183021</v>
+        <v>28.58397422183016</v>
       </c>
       <c r="R45" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777034</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909106</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990484</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608894</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356251</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622195</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067709</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885869</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082989</v>
       </c>
       <c r="L46" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761285</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037172</v>
+        <v>29.42786725037166</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167532</v>
+        <v>28.72813834167527</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246818</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926141</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342133</v>
+        <v>15.7200072634213</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103664</v>
+        <v>8.44111995710365</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124483</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885797</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.05416247351118</v>
+        <v>39.05416247350983</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146809</v>
+        <v>6.215385544146951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9.267167734103539</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>68.8409966549246</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="P12" t="n">
         <v>85.67516677172179</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.73893652031376</v>
+        <v>22.7389365203139</v>
       </c>
       <c r="C13" t="n">
-        <v>33.8986762133095</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.17320693457128</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.66037420357265</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>74.59862875649608</v>
+        <v>47.02163082711644</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.58199948956234</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39.05416247350995</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.05416247351119</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="R14" t="n">
-        <v>6.215385544146809</v>
+        <v>6.215385544146923</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>9.267167734103539</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>98.93990648501796</v>
+        <v>68.84099665492458</v>
       </c>
       <c r="N15" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172179</v>
@@ -35778,31 +35778,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>22.73893652031387</v>
       </c>
       <c r="C16" t="n">
-        <v>33.8986762133095</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.17320693457125</v>
       </c>
       <c r="E16" t="n">
-        <v>58.67971597305686</v>
+        <v>58.67971597305697</v>
       </c>
       <c r="F16" t="n">
-        <v>61.4289749668352</v>
+        <v>61.42897496683531</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16.02632018371046</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.57850973646428</v>
       </c>
       <c r="I16" t="n">
-        <v>21.03629767218949</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.49039014520204</v>
+        <v>80.49039014520216</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956219</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.30245476157678</v>
+        <v>89.29193017432448</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>45.95043107226856</v>
       </c>
       <c r="L17" t="n">
         <v>49.05450173165866</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>98.93990648501796</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081228</v>
+        <v>8.967093256081398</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501796</v>
+        <v>68.8409966549246</v>
       </c>
       <c r="P18" t="n">
-        <v>55.57625694162915</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>55.54508207524425</v>
+        <v>36.30245476157545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="U20" t="n">
-        <v>79.69727917135052</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081228</v>
+        <v>8.967093256081398</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.36607756419615</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501796</v>
+        <v>9.26716773410317</v>
       </c>
       <c r="N21" t="n">
-        <v>55.57625694162912</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501796</v>
+        <v>98.93990648501756</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>36.30245476157678</v>
+        <v>89.29193017432448</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>54.91752432834974</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.93990648501797</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081228</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501797</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="M24" t="n">
-        <v>9.267167734103484</v>
+        <v>98.9399064850175</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501797</v>
+        <v>68.84099665492448</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501797</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>85.67516677172179</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594498</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P26" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447849</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,19 +36732,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.67806409490282</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.18457313338854</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.93383212716688</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.11454584124122</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8241585468063</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08685664989379</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L29" t="n">
-        <v>261.915216077273</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447683</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>57.82891124127165</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.99524730553375</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4733854492278</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>48.43762974747229</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.0868566498939</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0803921385459</v>
+        <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
         <v>207.6342064794345</v>
       </c>
       <c r="L32" t="n">
-        <v>261.915216077272</v>
+        <v>261.9152160772721</v>
       </c>
       <c r="M32" t="n">
         <v>296.6109353576339</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0545499594511</v>
+        <v>291.0545499594512</v>
       </c>
       <c r="O32" t="n">
         <v>249.4147554462998</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4652350250909</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447835</v>
+        <v>18.72024270447844</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,13 +37218,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.08336689679579</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.354262850676286</v>
       </c>
       <c r="J34" t="n">
-        <v>92.99524730553358</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4733854492278</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>143.9157678911669</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>83.75022101202049</v>
       </c>
       <c r="N35" t="n">
-        <v>127.4010345256516</v>
+        <v>127.4010345256507</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P35" t="n">
         <v>227.1594673703865</v>
@@ -37327,13 +37327,13 @@
         <v>152.1172052672565</v>
       </c>
       <c r="R35" t="n">
-        <v>46.41447504977393</v>
+        <v>46.41447504977396</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250288</v>
+        <v>13.30678731250291</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987234</v>
+        <v>18.14070877987237</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>62.9380260259409</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.5524856749613</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>235.3284388247301</v>
       </c>
       <c r="L38" t="n">
-        <v>289.6094484225677</v>
+        <v>98.26170064347154</v>
       </c>
       <c r="M38" t="n">
         <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P38" t="n">
-        <v>30.58521172511248</v>
+        <v>227.1594673703866</v>
       </c>
       <c r="Q38" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R38" t="n">
-        <v>46.41447504977393</v>
+        <v>46.41447504977398</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250288</v>
+        <v>13.30678731250294</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987234</v>
+        <v>18.1407087798724</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>62.93802602594093</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>41.55248567496116</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K41" t="n">
-        <v>43.98069104563486</v>
+        <v>235.32843882473</v>
       </c>
       <c r="L41" t="n">
-        <v>49.05450173165869</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202052</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N41" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915953</v>
+        <v>99.06802732500246</v>
       </c>
       <c r="P41" t="n">
         <v>227.1594673703865</v>
@@ -37801,13 +37801,13 @@
         <v>152.1172052672565</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250286</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419616</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L42" t="n">
         <v>119.8886527290606</v>
@@ -37871,10 +37871,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7746244838398</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K44" t="n">
-        <v>30.58521172511228</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225677</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M44" t="n">
-        <v>324.3051677029295</v>
+        <v>324.3051677029293</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383773</v>
+        <v>78.19383561383759</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915953</v>
+        <v>36.55404110068626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.1172052672565</v>
+        <v>20.49071985043891</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977391</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250286</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419616</v>
+        <v>39.3660775641961</v>
       </c>
       <c r="L45" t="n">
         <v>119.8886527290606</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851681</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172173</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.862447228439966</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.6280644724623</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
